--- a/data/respirometry/middle/final_rates/800_rates.xlsx
+++ b/data/respirometry/middle/final_rates/800_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z2">
-        <v>-0.241961450939415</v>
+        <v>-0.2234193421634373</v>
       </c>
       <c r="AB2">
-        <v>-0.009678458037576601</v>
+        <v>-1006.116301683182</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.009678458037576601</v>
+        <v>-1006.116301683182</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z3">
-        <v>-0.1860575881551362</v>
+        <v>-0.1714821897008507</v>
       </c>
       <c r="AB3">
-        <v>-0.007442303526205447</v>
+        <v>-668.4281791695488</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.007442303526205447</v>
+        <v>-668.4281791695488</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z4">
-        <v>-0.2384336625816451</v>
+        <v>-0.2280694701114503</v>
       </c>
       <c r="AB4">
-        <v>-0.009537346503265804</v>
+        <v>-915.4952244078742</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.009537346503265804</v>
+        <v>-915.4952244078742</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z5">
-        <v>-0.2946755883352563</v>
+        <v>-0.2805450244660898</v>
       </c>
       <c r="AB5">
-        <v>-0.01178702353341025</v>
+        <v>-1347.042171893286</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.01178702353341025</v>
+        <v>-1347.042171893286</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z6">
-        <v>-0.2113565025895263</v>
+        <v>-0.2022093500179011</v>
       </c>
       <c r="AB6">
-        <v>-0.008454260103581052</v>
+        <v>-1258.191511222495</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.008454260103581052</v>
+        <v>-1258.191511222495</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z7">
-        <v>-0.1384446085002062</v>
+        <v>-0.1304589500380652</v>
       </c>
       <c r="AB7">
-        <v>-0.005537784340008246</v>
+        <v>-580.4295003745754</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.005537784340008246</v>
+        <v>-580.4295003745754</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.0002115502696545546</v>
-      </c>
-      <c r="AB8">
-        <v>8.462010786182184E-06</v>
+        <v>0.0002114954780799225</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>8.462010786182184E-06</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z9">
-        <v>0.2073632528251629</v>
+        <v>0.1914724901640171</v>
       </c>
       <c r="AB9">
-        <v>0.008294530113006517</v>
+        <v>862.2511901273361</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.008294530113006517</v>
+        <v>862.2511901273361</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z10">
-        <v>19.60902260372283</v>
+        <v>18.07288897658993</v>
       </c>
       <c r="AB10">
-        <v>0.7843609041489134</v>
+        <v>70447.13093546113</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.7843609041489134</v>
+        <v>70447.13093546113</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z11">
-        <v>0.2441519878749597</v>
+        <v>0.2335392322475941</v>
       </c>
       <c r="AB11">
-        <v>0.009766079514998386</v>
+        <v>937.4514341181856</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.009766079514998386</v>
+        <v>937.4514341181856</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z12">
-        <v>0.3065595587801741</v>
+        <v>0.2918591234658028</v>
       </c>
       <c r="AB12">
-        <v>0.01226238235120696</v>
+        <v>1401.367029440104</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.01226238235120696</v>
+        <v>1401.367029440104</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z13">
-        <v>0.2400498652091491</v>
+        <v>0.2296609123500524</v>
       </c>
       <c r="AB13">
-        <v>0.009601994608365966</v>
+        <v>1429.001232400326</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.009601994608365966</v>
+        <v>1429.001232400326</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z14">
-        <v>0.08221529121929746</v>
+        <v>0.07747301022218814</v>
       </c>
       <c r="AB14">
-        <v>0.003288611648771898</v>
+        <v>344.687893031934</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.003288611648771898</v>
+        <v>344.687893031934</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.0005547647315172052</v>
-      </c>
-      <c r="AB15">
-        <v>-2.219058926068821E-05</v>
+        <v>-0.0005546210473080581</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>-2.219058926068821E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
